--- a/data/xmhz.xlsx
+++ b/data/xmhz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="12760"/>
+    <workbookView windowWidth="24460" windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="售前项目" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>项目名称</t>
   </si>
@@ -26,9 +26,6 @@
     <t>项目类型</t>
   </si>
   <si>
-    <t>客户名称</t>
-  </si>
-  <si>
     <t>涉及的疾病</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
   </si>
   <si>
     <t>RWS</t>
-  </si>
-  <si>
-    <t>Alexion</t>
   </si>
   <si>
     <t>依库珠单抗</t>
@@ -72,45 +66,22 @@
     <t>2023-10-30</t>
   </si>
   <si>
-    <t>武田</t>
-  </si>
-  <si>
     <t>乳糜泻</t>
   </si>
   <si>
     <t>天津, 成都, 厦门, 福州</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>局灶节段性肾小球硬化</t>
-    </r>
+    <t>局灶节段性肾小球硬化</t>
   </si>
   <si>
     <t>2023-10-26</t>
   </si>
   <si>
-    <t>阿斯利康</t>
-  </si>
-  <si>
-    <t>局灶节段性肾小球硬化</t>
-  </si>
-  <si>
     <t>天津, 成都, 厦门, 福州, 宁波</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周围神经病评分量表</t>
-    </r>
+    <t>周围神经病评分量表</t>
   </si>
   <si>
     <t>2023-09-14</t>
@@ -122,23 +93,10 @@
     <t>天津, 成都</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Aetion ADPKD</t>
-    </r>
+    <t>ADPKD</t>
   </si>
   <si>
     <t>2023-08-16</t>
-  </si>
-  <si>
-    <t>Aetion</t>
-  </si>
-  <si>
-    <t>ADPKD</t>
   </si>
   <si>
     <t>天津, 成都, 厦门</t>
@@ -157,9 +115,6 @@
     <t>2023-08-07</t>
   </si>
   <si>
-    <t>Amgen</t>
-  </si>
-  <si>
     <t>哮喘, 痒疹</t>
   </si>
   <si>
@@ -182,64 +137,34 @@
     <t>抗凝药</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>强生IED可行性分析</t>
-    </r>
+    <t>IED可行性分析</t>
   </si>
   <si>
     <t>2023-06-16</t>
   </si>
   <si>
-    <t>强生</t>
-  </si>
-  <si>
     <t>天津</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杨森多囊肾&amp;银屑病</t>
-    </r>
+    <t>多囊肾&amp;银屑病</t>
   </si>
   <si>
     <t>2023-06-06</t>
   </si>
   <si>
-    <t>杨森</t>
-  </si>
-  <si>
     <t>多囊肾, 银屑病</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诺和诺德司美格鲁泰</t>
-    </r>
+    <t>司美格鲁泰</t>
   </si>
   <si>
     <t>2023-05-18</t>
   </si>
   <si>
-    <t>诺和诺德</t>
-  </si>
-  <si>
     <t>糖尿病</t>
   </si>
   <si>
-    <t>司美格鲁泰</t>
+    <t>客户名称</t>
   </si>
   <si>
     <r>
@@ -291,6 +216,9 @@
   </si>
   <si>
     <t>2022-07-27</t>
+  </si>
+  <si>
+    <t>Alexion</t>
   </si>
   <si>
     <t>IgA肾病, 狼疮性肾病</t>
@@ -321,6 +249,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -470,11 +403,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -779,159 +707,160 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1465,26 +1394,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="15.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="15.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="22"/>
     <col min="2" max="2" width="14"/>
     <col min="3" max="3" width="13"/>
-    <col min="4" max="4" width="15"/>
-    <col min="5" max="5" width="22"/>
-    <col min="6" max="6" width="14"/>
-    <col min="7" max="7" width="33"/>
+    <col min="4" max="4" width="22"/>
+    <col min="5" max="5" width="14"/>
+    <col min="6" max="6" width="33"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
+    <row r="1" ht="39" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1503,216 +1431,183 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="2:6">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="2:7">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="2:3">
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" ht="39" customHeight="1" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" ht="39" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="39" customHeight="1" spans="1:7">
-      <c r="A5" s="1" t="s">
+    <row r="6" ht="39" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" ht="39" customHeight="1" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="9" ht="39" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" ht="39" customHeight="1" spans="1:7">
-      <c r="A8" s="1" t="s">
+    <row r="10" ht="39" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="11" ht="39" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
-        <v>32</v>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" ht="39" customHeight="1" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="12" ht="39" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="39" customHeight="1" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" ht="39" customHeight="1" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" ht="39" customHeight="1" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1754,76 +1649,76 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/xmhz.xlsx
+++ b/data/xmhz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24460" windowHeight="14960"/>
+    <workbookView windowWidth="24460" windowHeight="14960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="售前项目" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>项目名称</t>
   </si>
@@ -164,9 +164,6 @@
     <t>糖尿病</t>
   </si>
   <si>
-    <t>客户名称</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -180,45 +177,22 @@
     <t>2022-12-22</t>
   </si>
   <si>
-    <t>GSK</t>
-  </si>
-  <si>
     <t>乙肝</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RWD based IVIG market analysis</t>
-    </r>
+    <t>RWD based IVIG market analysis</t>
   </si>
   <si>
     <t>2022-08-05</t>
   </si>
   <si>
-    <t>再鼎</t>
-  </si>
-  <si>
     <t>IVIG</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Alexion incidence &amp; prevalence analysis</t>
-    </r>
+    <t>incidence &amp; prevalence analysis</t>
   </si>
   <si>
     <t>2022-07-27</t>
-  </si>
-  <si>
-    <t>Alexion</t>
   </si>
   <si>
     <t>IgA肾病, 狼疮性肾病</t>
@@ -1396,7 +1370,7 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
@@ -1619,26 +1593,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="36"/>
     <col min="2" max="2" width="15"/>
     <col min="3" max="3" width="12"/>
-    <col min="4" max="4" width="14"/>
-    <col min="5" max="5" width="21"/>
-    <col min="6" max="6" width="14"/>
-    <col min="7" max="7" width="21"/>
+    <col min="4" max="4" width="21"/>
+    <col min="5" max="5" width="14"/>
+    <col min="6" max="6" width="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
+    <row r="1" ht="39" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1649,75 +1622,63 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
         <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
     </row>
